--- a/Documentation/Design/ClassDataAndMethods.xlsx
+++ b/Documentation/Design/ClassDataAndMethods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8625"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Variable Name</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>User (Implements Login)</t>
+  </si>
+  <si>
+    <t>boolRented</t>
+  </si>
+  <si>
+    <t>currentRentals</t>
   </si>
 </sst>
 </file>
@@ -180,13 +186,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -483,20 +489,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -515,10 +521,10 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
@@ -535,6 +541,9 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -542,16 +551,16 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
@@ -560,56 +569,60 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4"/>
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -617,7 +630,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -625,20 +638,25 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
